--- a/biology/Zoologie/Compsobuthus_manzonii/Compsobuthus_manzonii.xlsx
+++ b/biology/Zoologie/Compsobuthus_manzonii/Compsobuthus_manzonii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Compsobuthus manzonii est une espèce de scorpions de la famille des Buthidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre au Yémen et en Arabie saoudite[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre au Yémen et en Arabie saoudite,.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Buthus manzonii par Borelli en 1915. Elle est placée dans le genre Compsobuthus par Vachon en 1949[3].
-Compsobuthus fuscatus[4] a été placée en synonymie avec Compsobuthus manzonii par Kovařík en 2013[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Buthus manzonii par Borelli en 1915. Elle est placée dans le genre Compsobuthus par Vachon en 1949.
+Compsobuthus fuscatus a été placée en synonymie avec Compsobuthus manzonii par Kovařík en 2013.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Renzo Manzoni[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Renzo Manzoni.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Borelli, « Gli Scorpioni del Museo Civico di Storia naturale di Milano. » Atti della Società italiana di scienze naturali, vol. 53, 1915, p. 456-464.</t>
         </is>
